--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1493</v>
+        <v>747</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1493</v>
+        <v>747</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1493</v>
+        <v>747</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1013</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.026</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1837,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.026</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>

--- a/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/01_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1725,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,64 +1988,6 @@
         <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>253</v>
-      </c>
-      <c r="H10" t="n">
-        <v>45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>253</v>
-      </c>
-      <c r="H11" t="n">
-        <v>45</v>
-      </c>
-      <c r="I11" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2060,7 +2002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,64 +2265,6 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>2</v>
       </c>
     </row>
